--- a/resultats/afect_vac_defuncions_brut.xlsx
+++ b/resultats/afect_vac_defuncions_brut.xlsx
@@ -533,16 +533,16 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>39.69374589764072</v>
+        <v>28.90495529831469</v>
       </c>
       <c r="G3" t="n">
         <v>1296148</v>
       </c>
       <c r="H3" t="n">
-        <v>514489.6935773522</v>
+        <v>374650.9999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.887347064415596e-06</v>
+        <v>5.338301512607735e-06</v>
       </c>
     </row>
     <row r="4">
@@ -603,16 +603,16 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>32.72343803426779</v>
+        <v>17.96763754045307</v>
       </c>
       <c r="G5" t="n">
         <v>1104675</v>
       </c>
       <c r="H5" t="n">
-        <v>361487.6391050477</v>
+        <v>198483.9999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>8.299038958641143e-06</v>
+        <v>1.511456842868947e-05</v>
       </c>
     </row>
     <row r="6">
@@ -673,16 +673,16 @@
         <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>28.90495529831469</v>
+        <v>15.3826971417548</v>
       </c>
       <c r="G7" t="n">
         <v>850137</v>
       </c>
       <c r="H7" t="n">
-        <v>245731.7198244335</v>
+        <v>130774</v>
       </c>
       <c r="I7" t="n">
-        <v>4.476426571164319e-05</v>
+        <v>8.411457935063543e-05</v>
       </c>
     </row>
     <row r="8">
@@ -743,16 +743,16 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>17.96763754045307</v>
+        <v>7.900045088872545</v>
       </c>
       <c r="G9" t="n">
         <v>632085</v>
       </c>
       <c r="H9" t="n">
-        <v>113570.7417475728</v>
+        <v>49935.00000000003</v>
       </c>
       <c r="I9" t="n">
-        <v>7.044067756272248e-05</v>
+        <v>0.0001602082707519775</v>
       </c>
     </row>
     <row r="10">
@@ -813,16 +813,16 @@
         <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>15.3826971417548</v>
+        <v>5.395137619759652</v>
       </c>
       <c r="G11" t="n">
         <v>451425</v>
       </c>
       <c r="H11" t="n">
-        <v>69441.34057216662</v>
+        <v>24355.00000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003456154475453725</v>
+        <v>0.000985423937589817</v>
       </c>
     </row>
   </sheetData>
